--- a/Code/Results/Cases/Case_1_75/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_75/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.23134776878788</v>
+        <v>7.82133082566617</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.160520056175142</v>
+        <v>9.988398897164046</v>
       </c>
       <c r="E2">
-        <v>9.297607744141343</v>
+        <v>14.32816096069627</v>
       </c>
       <c r="F2">
-        <v>19.62881546532825</v>
+        <v>29.90354716093452</v>
       </c>
       <c r="G2">
-        <v>20.32240861561047</v>
+        <v>29.17753511029934</v>
       </c>
       <c r="H2">
-        <v>8.507097482106792</v>
+        <v>14.49866275347064</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.905153081546213</v>
+        <v>10.21976011310801</v>
       </c>
       <c r="K2">
-        <v>16.0908982836229</v>
+        <v>10.29665410415161</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.34227637263005</v>
+        <v>14.57991496661228</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.6091132102117</v>
+        <v>22.10560947689195</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.878257306632282</v>
+        <v>7.750599921545449</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.922201901597533</v>
+        <v>9.963905134536027</v>
       </c>
       <c r="E3">
-        <v>9.160024168526158</v>
+        <v>14.34425216291507</v>
       </c>
       <c r="F3">
-        <v>19.4999576622382</v>
+        <v>29.99830103918405</v>
       </c>
       <c r="G3">
-        <v>20.17774945932601</v>
+        <v>29.30188088489006</v>
       </c>
       <c r="H3">
-        <v>8.597432352142226</v>
+        <v>14.55387829129145</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.947114081520544</v>
+        <v>10.2482626535018</v>
       </c>
       <c r="K3">
-        <v>15.23482790973994</v>
+        <v>9.849906929832551</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.54277801469571</v>
+        <v>14.41233242176732</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.69482994773983</v>
+        <v>22.20127598429987</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.655251222025791</v>
+        <v>7.708686723291977</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.774545032191229</v>
+        <v>9.950364002103923</v>
       </c>
       <c r="E4">
-        <v>9.080070023758562</v>
+        <v>14.35666734359589</v>
       </c>
       <c r="F4">
-        <v>19.43986850276932</v>
+        <v>30.06388129717048</v>
       </c>
       <c r="G4">
-        <v>20.11753345366025</v>
+        <v>29.3880641384802</v>
       </c>
       <c r="H4">
-        <v>8.658501926076642</v>
+        <v>14.59016273145722</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.975561902221265</v>
+        <v>10.26701508742808</v>
       </c>
       <c r="K4">
-        <v>14.68373181006663</v>
+        <v>9.563577937218119</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.02508138328894</v>
+        <v>14.30980147068305</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.76072946634899</v>
+        <v>22.26492279276048</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.562943585776862</v>
+        <v>7.692006826993126</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.714129150525934</v>
+        <v>9.945226605794771</v>
       </c>
       <c r="E5">
-        <v>9.048641865039258</v>
+        <v>14.36236434824852</v>
       </c>
       <c r="F5">
-        <v>19.42003950545734</v>
+        <v>30.09246230383482</v>
       </c>
       <c r="G5">
-        <v>20.09993804829552</v>
+        <v>29.42564550237796</v>
       </c>
       <c r="H5">
-        <v>8.684749931199258</v>
+        <v>14.6055480778826</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.987814163894752</v>
+        <v>10.27497198996644</v>
       </c>
       <c r="K5">
-        <v>14.45288424529527</v>
+        <v>9.443984391384275</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.80741781571839</v>
+        <v>14.26814992408395</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.79077580777478</v>
+        <v>22.2920914241658</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.547533746222806</v>
+        <v>7.689261843937516</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.704085117046284</v>
+        <v>9.944396651066482</v>
       </c>
       <c r="E6">
-        <v>9.043493350505212</v>
+        <v>14.3633488520262</v>
       </c>
       <c r="F6">
-        <v>19.4170242873692</v>
+        <v>30.09732014974185</v>
       </c>
       <c r="G6">
-        <v>20.097427923345</v>
+        <v>29.43203413792591</v>
       </c>
       <c r="H6">
-        <v>8.689189301282383</v>
+        <v>14.60813899580017</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.989888045108769</v>
+        <v>10.2763122717398</v>
       </c>
       <c r="K6">
-        <v>14.41417786496094</v>
+        <v>9.423953673097465</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.77087195273506</v>
+        <v>14.26124273670842</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.79595358527897</v>
+        <v>22.29667711093184</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.654011935924196</v>
+        <v>7.70846012807757</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.773731109298343</v>
+        <v>9.950293170764525</v>
       </c>
       <c r="E7">
-        <v>9.079641481388002</v>
+        <v>14.35674159309273</v>
       </c>
       <c r="F7">
-        <v>19.4395823994323</v>
+        <v>30.0642592398352</v>
       </c>
       <c r="G7">
-        <v>20.11726839123914</v>
+        <v>29.38856102562008</v>
       </c>
       <c r="H7">
-        <v>8.658850463102855</v>
+        <v>14.59036779744346</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.975724489660351</v>
+        <v>10.26712112054269</v>
       </c>
       <c r="K7">
-        <v>14.68064371517334</v>
+        <v>9.561976688552848</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.02217294914299</v>
+        <v>14.30923916329059</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.76112194739097</v>
+        <v>22.26528421247818</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.110962366439725</v>
+        <v>7.796639748558013</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.078675339682423</v>
+        <v>9.979645000428308</v>
       </c>
       <c r="E8">
-        <v>9.249241064940328</v>
+        <v>14.33318323371869</v>
       </c>
       <c r="F8">
-        <v>19.58036261937815</v>
+        <v>29.93467958767732</v>
       </c>
       <c r="G8">
-        <v>20.26645057994836</v>
+        <v>29.21836134654646</v>
       </c>
       <c r="H8">
-        <v>8.537052505344558</v>
+        <v>14.51720683239567</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.919054837989894</v>
+        <v>10.22932820836047</v>
       </c>
       <c r="K8">
-        <v>15.80108071830659</v>
+        <v>10.14517321975912</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.072191754746</v>
+        <v>14.52207995259046</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.63582618825143</v>
+        <v>22.13757565847529</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.953052015074628</v>
+        <v>7.980724238261707</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.662553868552221</v>
+        <v>10.04890274879951</v>
       </c>
       <c r="E9">
-        <v>9.616855436792971</v>
+        <v>14.30708455521427</v>
       </c>
       <c r="F9">
-        <v>20.0124905473064</v>
+        <v>29.7394887712873</v>
       </c>
       <c r="G9">
-        <v>20.79573062511793</v>
+        <v>28.963144773405</v>
       </c>
       <c r="H9">
-        <v>8.344946429539617</v>
+        <v>14.3926284021754</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.829942709844809</v>
+        <v>10.16513199650206</v>
       </c>
       <c r="K9">
-        <v>17.79181688072744</v>
+        <v>11.18930472606495</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.91759519710424</v>
+        <v>14.94065659480468</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.502035237552</v>
+        <v>21.92616068597454</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.557452879280818</v>
+        <v>8.121583581056548</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.078676642763782</v>
+        <v>10.10664903526043</v>
       </c>
       <c r="E10">
-        <v>9.907021530897421</v>
+        <v>14.30013372360042</v>
       </c>
       <c r="F10">
-        <v>20.43109979459103</v>
+        <v>29.63224183763653</v>
       </c>
       <c r="G10">
-        <v>21.34007478931166</v>
+        <v>28.82418602670313</v>
       </c>
       <c r="H10">
-        <v>8.235669883081687</v>
+        <v>14.31260374304968</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.778951794951516</v>
+        <v>10.12398899478217</v>
       </c>
       <c r="K10">
-        <v>19.12436417461469</v>
+        <v>11.89123028698282</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.14269614801945</v>
+        <v>15.24664801105621</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.4811967811364</v>
+        <v>21.79473741221788</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.864615711541392</v>
+        <v>8.186621758304877</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.264448783337478</v>
+        <v>10.134346301941</v>
       </c>
       <c r="E11">
-        <v>10.04309002592394</v>
+        <v>14.29961616164746</v>
       </c>
       <c r="F11">
-        <v>20.64450420525271</v>
+        <v>29.59134962830333</v>
       </c>
       <c r="G11">
-        <v>21.62322090281281</v>
+        <v>28.77164208254204</v>
       </c>
       <c r="H11">
-        <v>8.193678831954381</v>
+        <v>14.27869383829717</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.759147262338644</v>
+        <v>10.10657480685216</v>
       </c>
       <c r="K11">
-        <v>19.70183758070757</v>
+        <v>12.19567679407965</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.67175105545908</v>
+        <v>15.38504528143899</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.49054215847775</v>
+        <v>21.74016447549718</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.978507478129831</v>
+        <v>8.211366059068775</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.334237423614741</v>
+        <v>10.14503412381946</v>
       </c>
       <c r="E12">
-        <v>10.09517543537936</v>
+        <v>14.29979926929119</v>
       </c>
       <c r="F12">
-        <v>20.72868355946699</v>
+        <v>29.5770032325083</v>
       </c>
       <c r="G12">
-        <v>21.73564985645175</v>
+        <v>28.75328889437468</v>
       </c>
       <c r="H12">
-        <v>8.178959872823759</v>
+        <v>14.26621153114499</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.752157564960403</v>
+        <v>10.10016737837107</v>
       </c>
       <c r="K12">
-        <v>19.91636066356829</v>
+        <v>12.30877810385911</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.86804573205232</v>
+        <v>15.43729906783768</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.4969527830945</v>
+        <v>21.72025070949988</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.95408623687503</v>
+        <v>8.206032138651119</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.319232819981352</v>
+        <v>10.14272353539608</v>
       </c>
       <c r="E13">
-        <v>10.08393344796045</v>
+        <v>14.29974299394936</v>
       </c>
       <c r="F13">
-        <v>20.71040335311124</v>
+        <v>29.5800422977039</v>
       </c>
       <c r="G13">
-        <v>21.71120336000337</v>
+        <v>28.75717276022998</v>
       </c>
       <c r="H13">
-        <v>8.182076093769597</v>
+        <v>14.26888386795036</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.753639879614243</v>
+        <v>10.10153902258053</v>
       </c>
       <c r="K13">
-        <v>19.87034427907366</v>
+        <v>12.28451762299746</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.82594983821188</v>
+        <v>15.42605275531546</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.49544181143524</v>
+        <v>21.72450602121621</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.874034086070747</v>
+        <v>8.188655294911943</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.270201818842272</v>
+        <v>10.13522163254099</v>
       </c>
       <c r="E14">
-        <v>10.04736406364471</v>
+        <v>14.2996236357127</v>
       </c>
       <c r="F14">
-        <v>20.65136187202267</v>
+        <v>29.59014650497928</v>
       </c>
       <c r="G14">
-        <v>21.63236565737992</v>
+        <v>28.77010115557895</v>
       </c>
       <c r="H14">
-        <v>8.192443774072853</v>
+        <v>14.27765972343275</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.758561866259978</v>
+        <v>10.10604391872937</v>
       </c>
       <c r="K14">
-        <v>19.71956986736545</v>
+        <v>12.20502576669777</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.68798133281944</v>
+        <v>15.38934754483882</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.49101107193824</v>
+        <v>21.73851107718097</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.824684930049351</v>
+        <v>8.178025887735178</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.240094655502016</v>
+        <v>10.13065229759033</v>
       </c>
       <c r="E15">
-        <v>10.02503632214154</v>
+        <v>14.29959985710531</v>
       </c>
       <c r="F15">
-        <v>20.61563753644249</v>
+        <v>29.59648399398647</v>
       </c>
       <c r="G15">
-        <v>21.58475596960358</v>
+        <v>28.77822153345391</v>
       </c>
       <c r="H15">
-        <v>8.198950441015601</v>
+        <v>14.2830818951153</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.761643801375984</v>
+        <v>10.10882763555732</v>
       </c>
       <c r="K15">
-        <v>19.62667473656679</v>
+        <v>12.15604872729816</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.60294517321396</v>
+        <v>15.36684330619087</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.48867596694617</v>
+        <v>21.74718755600437</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.537038396212063</v>
+        <v>8.117350599126754</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.066460425604246</v>
+        <v>10.10486719365243</v>
       </c>
       <c r="E16">
-        <v>9.898208800612563</v>
+        <v>14.3002206644983</v>
       </c>
       <c r="F16">
-        <v>20.41762137367028</v>
+        <v>29.63507339855157</v>
       </c>
       <c r="G16">
-        <v>21.32229446854941</v>
+        <v>28.82783544635948</v>
       </c>
       <c r="H16">
-        <v>8.238575495998884</v>
+        <v>14.31487001848241</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.780316179220386</v>
+        <v>10.12515322827168</v>
       </c>
       <c r="K16">
-        <v>19.08604477919674</v>
+        <v>11.87103055528228</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.10755387235384</v>
+        <v>15.23758395411025</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.48097895272862</v>
+        <v>21.79840896270292</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.368081944309051</v>
+        <v>8.080358376295008</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.958999114146757</v>
+        <v>10.0894105413516</v>
       </c>
       <c r="E17">
-        <v>9.821428069386597</v>
+        <v>14.30127803766098</v>
       </c>
       <c r="F17">
-        <v>20.30207879646383</v>
+        <v>29.66077131810787</v>
       </c>
       <c r="G17">
-        <v>21.17046061872318</v>
+        <v>28.86101183586284</v>
       </c>
       <c r="H17">
-        <v>8.264911244298503</v>
+        <v>14.33500972993278</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.792655098608121</v>
+        <v>10.13550171932559</v>
       </c>
       <c r="K17">
-        <v>18.74701063673669</v>
+        <v>11.69233700977404</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.79642075431464</v>
+        <v>15.1580544727142</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.48119613303587</v>
+        <v>21.83116825346947</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.281672432571565</v>
+        <v>8.059173181903336</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.896861149996807</v>
+        <v>10.08065508166781</v>
       </c>
       <c r="E18">
-        <v>9.777650514248409</v>
+        <v>14.30213519667325</v>
       </c>
       <c r="F18">
-        <v>20.23778142656965</v>
+        <v>29.67629501928254</v>
       </c>
       <c r="G18">
-        <v>21.08646913747626</v>
+        <v>28.88109769856661</v>
       </c>
       <c r="H18">
-        <v>8.280780877718609</v>
+        <v>14.34682827585512</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.800069942263852</v>
+        <v>10.14157646143995</v>
       </c>
       <c r="K18">
-        <v>18.54930555440758</v>
+        <v>11.58816056888051</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.6148048572697</v>
+        <v>15.1122382354537</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.4830831169114</v>
+        <v>21.85050098775537</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.252271818336837</v>
+        <v>8.05201667978708</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.875767507642974</v>
+        <v>10.07771396088036</v>
       </c>
       <c r="E19">
-        <v>9.762895059907672</v>
+        <v>14.30246821190708</v>
       </c>
       <c r="F19">
-        <v>20.21638023756862</v>
+        <v>29.68167857064021</v>
       </c>
       <c r="G19">
-        <v>21.0586010978319</v>
+        <v>28.88807049709584</v>
       </c>
       <c r="H19">
-        <v>8.286275941943821</v>
+        <v>14.35087014410807</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.802634412299987</v>
+        <v>10.14365432363639</v>
       </c>
       <c r="K19">
-        <v>18.48190298744793</v>
+        <v>11.55264996499237</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.55285555641143</v>
+        <v>15.0967143209602</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.48401961648161</v>
+        <v>21.85713088489061</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.384005673609368</v>
+        <v>8.084286927542468</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.970473014364651</v>
+        <v>10.0910420192749</v>
       </c>
       <c r="E20">
-        <v>9.829561886020095</v>
+        <v>14.30113971720622</v>
       </c>
       <c r="F20">
-        <v>20.31415448659052</v>
+        <v>29.65795881419975</v>
       </c>
       <c r="G20">
-        <v>21.18627717171376</v>
+        <v>28.85737620153176</v>
       </c>
       <c r="H20">
-        <v>8.262032525359675</v>
+        <v>14.33284153069761</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.791308549460877</v>
+        <v>10.13438742190195</v>
       </c>
       <c r="K20">
-        <v>18.7833812296639</v>
+        <v>11.71150416905149</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.82981665203958</v>
+        <v>15.16652836254887</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.4809894493811</v>
+        <v>21.82763019375571</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.897612920778782</v>
+        <v>8.193756331665737</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.284618971251358</v>
+        <v>10.13741975803469</v>
       </c>
       <c r="E21">
-        <v>10.05809040620373</v>
+        <v>14.29964841577741</v>
       </c>
       <c r="F21">
-        <v>20.66861193489302</v>
+        <v>29.58714772879403</v>
       </c>
       <c r="G21">
-        <v>21.65538020836468</v>
+        <v>28.76626179219696</v>
       </c>
       <c r="H21">
-        <v>8.189365855999768</v>
+        <v>14.27507230819282</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.757102139571271</v>
+        <v>10.10471565002794</v>
       </c>
       <c r="K21">
-        <v>19.76396883227737</v>
+        <v>12.22843412570641</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.72861570616108</v>
+        <v>15.40013324943285</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.49223324352115</v>
+        <v>21.73437703019796</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.224632828502614</v>
+        <v>8.265965301905466</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.486652698195673</v>
+        <v>10.16889003370698</v>
       </c>
       <c r="E22">
-        <v>10.21069504251084</v>
+        <v>14.30088275506473</v>
       </c>
       <c r="F22">
-        <v>20.91992203409053</v>
+        <v>29.54750645198952</v>
       </c>
       <c r="G22">
-        <v>21.99234794253663</v>
+        <v>28.71571727303317</v>
       </c>
       <c r="H22">
-        <v>8.148800950838417</v>
+        <v>14.23940722825986</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.737729240711458</v>
+        <v>10.08641297448832</v>
       </c>
       <c r="K22">
-        <v>20.38062618071245</v>
+        <v>12.55351921336291</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.2924556572544</v>
+        <v>15.55189092262548</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.51639557196147</v>
+        <v>21.6778139428362</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.051379015302381</v>
+        <v>8.227372597688811</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.379138933650994</v>
+        <v>10.15198965261691</v>
       </c>
       <c r="E23">
-        <v>10.12895831925204</v>
+        <v>14.30002227704925</v>
       </c>
       <c r="F23">
-        <v>20.78397676597687</v>
+        <v>29.56805539319046</v>
       </c>
       <c r="G23">
-        <v>21.80969598221886</v>
+        <v>28.74186690533774</v>
       </c>
       <c r="H23">
-        <v>8.16979243856251</v>
+        <v>14.25825105820982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.747788334262775</v>
+        <v>10.09608185354925</v>
       </c>
       <c r="K23">
-        <v>20.05372523695123</v>
+        <v>12.38119659277155</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.99367430253621</v>
+        <v>15.47099158061542</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.50190720043194</v>
+        <v>21.70760090000057</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.376809311413718</v>
+        <v>8.082510572010507</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.965286772064593</v>
+        <v>10.09030402031868</v>
       </c>
       <c r="E24">
-        <v>9.825883449537654</v>
+        <v>14.30120147538266</v>
       </c>
       <c r="F24">
-        <v>20.30868843881326</v>
+        <v>29.65922801244539</v>
       </c>
       <c r="G24">
-        <v>21.1791162377681</v>
+        <v>28.85901671928078</v>
       </c>
       <c r="H24">
-        <v>8.263331729358864</v>
+        <v>14.33382102611623</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.791916326041511</v>
+        <v>10.13489080558224</v>
       </c>
       <c r="K24">
-        <v>18.76694677227252</v>
+        <v>11.70284318766219</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.8147269063774</v>
+        <v>15.16269760574493</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.48107741494177</v>
+        <v>21.82922819642524</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.731614499629748</v>
+        <v>7.929850910170794</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.506578619089558</v>
+        <v>10.02894089964039</v>
       </c>
       <c r="E25">
-        <v>9.513781121056237</v>
+        <v>14.31199547957542</v>
       </c>
       <c r="F25">
-        <v>19.87821246220031</v>
+        <v>29.78595934879031</v>
       </c>
       <c r="G25">
-        <v>20.62593307584116</v>
+        <v>29.02370778239584</v>
       </c>
       <c r="H25">
-        <v>8.39157852541809</v>
+        <v>14.42430923712234</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.851587378817928</v>
+        <v>10.18143962000373</v>
       </c>
       <c r="K25">
-        <v>17.27588271499731</v>
+        <v>10.91800932796041</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.44132805953835</v>
+        <v>14.82752780207331</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.52530233940636</v>
+        <v>21.97916464603113</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_75/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_75/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.82133082566617</v>
+        <v>7.231347768787854</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.988398897164046</v>
+        <v>7.160520056175143</v>
       </c>
       <c r="E2">
-        <v>14.32816096069627</v>
+        <v>9.297607744141349</v>
       </c>
       <c r="F2">
-        <v>29.90354716093452</v>
+        <v>19.62881546532823</v>
       </c>
       <c r="G2">
-        <v>29.17753511029934</v>
+        <v>20.32240861561044</v>
       </c>
       <c r="H2">
-        <v>14.49866275347064</v>
+        <v>8.507097482106779</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.21976011310801</v>
+        <v>5.905153081546214</v>
       </c>
       <c r="K2">
-        <v>10.29665410415161</v>
+        <v>16.09089828362291</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.57991496661228</v>
+        <v>13.34227637263006</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.10560947689195</v>
+        <v>13.60911321021169</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.750599921545449</v>
+        <v>6.878257306632291</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.963905134536027</v>
+        <v>6.922201901597508</v>
       </c>
       <c r="E3">
-        <v>14.34425216291507</v>
+        <v>9.160024168526109</v>
       </c>
       <c r="F3">
-        <v>29.99830103918405</v>
+        <v>19.49995766223804</v>
       </c>
       <c r="G3">
-        <v>29.30188088489006</v>
+        <v>20.17774945932578</v>
       </c>
       <c r="H3">
-        <v>14.55387829129145</v>
+        <v>8.59743235214216</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.2482626535018</v>
+        <v>5.947114081520509</v>
       </c>
       <c r="K3">
-        <v>9.849906929832551</v>
+        <v>15.23482790973996</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.41233242176732</v>
+        <v>12.54277801469573</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.20127598429987</v>
+        <v>13.69482994773969</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.708686723291977</v>
+        <v>6.655251222025817</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.950364002103923</v>
+        <v>6.774545032191087</v>
       </c>
       <c r="E4">
-        <v>14.35666734359589</v>
+        <v>9.080070023758509</v>
       </c>
       <c r="F4">
-        <v>30.06388129717048</v>
+        <v>19.43986850276906</v>
       </c>
       <c r="G4">
-        <v>29.3880641384802</v>
+        <v>20.11753345365995</v>
       </c>
       <c r="H4">
-        <v>14.59016273145722</v>
+        <v>8.658501926076578</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.26701508742808</v>
+        <v>5.975561902221268</v>
       </c>
       <c r="K4">
-        <v>9.563577937218119</v>
+        <v>14.68373181006668</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.30980147068305</v>
+        <v>12.02508138328897</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.26492279276048</v>
+        <v>13.76072946634882</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.692006826993126</v>
+        <v>6.562943585776862</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.945226605794771</v>
+        <v>6.714129150526027</v>
       </c>
       <c r="E5">
-        <v>14.36236434824852</v>
+        <v>9.048641865039269</v>
       </c>
       <c r="F5">
-        <v>30.09246230383482</v>
+        <v>19.42003950545716</v>
       </c>
       <c r="G5">
-        <v>29.42564550237796</v>
+        <v>20.09993804829511</v>
       </c>
       <c r="H5">
-        <v>14.6055480778826</v>
+        <v>8.684749931199191</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.27497198996644</v>
+        <v>5.987814163894692</v>
       </c>
       <c r="K5">
-        <v>9.443984391384275</v>
+        <v>14.45288424529537</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.26814992408395</v>
+        <v>11.80741781571844</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.2920914241658</v>
+        <v>13.7907758077746</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.689261843937516</v>
+        <v>6.547533746222784</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.944396651066482</v>
+        <v>6.704085117046318</v>
       </c>
       <c r="E6">
-        <v>14.3633488520262</v>
+        <v>9.043493350505161</v>
       </c>
       <c r="F6">
-        <v>30.09732014974185</v>
+        <v>19.4170242873691</v>
       </c>
       <c r="G6">
-        <v>29.43203413792591</v>
+        <v>20.09742792334484</v>
       </c>
       <c r="H6">
-        <v>14.60813899580017</v>
+        <v>8.689189301282322</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.2763122717398</v>
+        <v>5.989888045108647</v>
       </c>
       <c r="K6">
-        <v>9.423953673097465</v>
+        <v>14.41417786496101</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.26124273670842</v>
+        <v>11.77087195273511</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.29667711093184</v>
+        <v>13.79595358527889</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.70846012807757</v>
+        <v>6.654011935924249</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.950293170764525</v>
+        <v>6.773731109298428</v>
       </c>
       <c r="E7">
-        <v>14.35674159309273</v>
+        <v>9.079641481388096</v>
       </c>
       <c r="F7">
-        <v>30.0642592398352</v>
+        <v>19.43958239943219</v>
       </c>
       <c r="G7">
-        <v>29.38856102562008</v>
+        <v>20.1172683912387</v>
       </c>
       <c r="H7">
-        <v>14.59036779744346</v>
+        <v>8.658850463102903</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.26712112054269</v>
+        <v>5.97572448966041</v>
       </c>
       <c r="K7">
-        <v>9.561976688552848</v>
+        <v>14.68064371517341</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.30923916329059</v>
+        <v>12.02217294914297</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.26528421247818</v>
+        <v>13.76112194739086</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.796639748558013</v>
+        <v>7.110962366439691</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.979645000428308</v>
+        <v>7.078675339682482</v>
       </c>
       <c r="E8">
-        <v>14.33318323371869</v>
+        <v>9.249241064940364</v>
       </c>
       <c r="F8">
-        <v>29.93467958767732</v>
+        <v>19.58036261937794</v>
       </c>
       <c r="G8">
-        <v>29.21836134654646</v>
+        <v>20.26645057994809</v>
       </c>
       <c r="H8">
-        <v>14.51720683239567</v>
+        <v>8.537052505344498</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.22932820836047</v>
+        <v>5.919054837989895</v>
       </c>
       <c r="K8">
-        <v>10.14517321975912</v>
+        <v>15.80108071830673</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.52207995259046</v>
+        <v>13.07219175474606</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.13757565847529</v>
+        <v>13.63582618825121</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.980724238261707</v>
+        <v>7.953052015074615</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.04890274879951</v>
+        <v>7.662553868552163</v>
       </c>
       <c r="E9">
-        <v>14.30708455521427</v>
+        <v>9.616855436792978</v>
       </c>
       <c r="F9">
-        <v>29.7394887712873</v>
+        <v>20.01249054730612</v>
       </c>
       <c r="G9">
-        <v>28.963144773405</v>
+        <v>20.79573062511773</v>
       </c>
       <c r="H9">
-        <v>14.3926284021754</v>
+        <v>8.344946429539565</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.16513199650206</v>
+        <v>5.829942709844866</v>
       </c>
       <c r="K9">
-        <v>11.18930472606495</v>
+        <v>17.79181688072746</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.94065659480468</v>
+        <v>14.91759519710426</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.92616068597454</v>
+        <v>13.50203523755181</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.121583581056548</v>
+        <v>8.557452879280753</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.10664903526043</v>
+        <v>8.078676642763751</v>
       </c>
       <c r="E10">
-        <v>14.30013372360042</v>
+        <v>9.907021530897381</v>
       </c>
       <c r="F10">
-        <v>29.63224183763653</v>
+        <v>20.4310997945909</v>
       </c>
       <c r="G10">
-        <v>28.82418602670313</v>
+        <v>21.34007478931152</v>
       </c>
       <c r="H10">
-        <v>14.31260374304968</v>
+        <v>8.235669883081579</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.12398899478217</v>
+        <v>5.778951794951513</v>
       </c>
       <c r="K10">
-        <v>11.89123028698282</v>
+        <v>19.12436417461472</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.24664801105621</v>
+        <v>16.14269614801947</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.79473741221788</v>
+        <v>13.48119678113632</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.186621758304877</v>
+        <v>8.864615711541424</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.134346301941</v>
+        <v>8.264448783337478</v>
       </c>
       <c r="E11">
-        <v>14.29961616164746</v>
+        <v>10.043090025924</v>
       </c>
       <c r="F11">
-        <v>29.59134962830333</v>
+        <v>20.64450420525258</v>
       </c>
       <c r="G11">
-        <v>28.77164208254204</v>
+        <v>21.62322090281261</v>
       </c>
       <c r="H11">
-        <v>14.27869383829717</v>
+        <v>8.193678831954387</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.10657480685216</v>
+        <v>5.759147262338645</v>
       </c>
       <c r="K11">
-        <v>12.19567679407965</v>
+        <v>19.70183758070764</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.38504528143899</v>
+        <v>16.67175105545909</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.74016447549718</v>
+        <v>13.49054215847765</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.211366059068775</v>
+        <v>8.978507478129931</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.14503412381946</v>
+        <v>8.33423742361474</v>
       </c>
       <c r="E12">
-        <v>14.29979926929119</v>
+        <v>10.09517543537935</v>
       </c>
       <c r="F12">
-        <v>29.5770032325083</v>
+        <v>20.72868355946681</v>
       </c>
       <c r="G12">
-        <v>28.75328889437468</v>
+        <v>21.73564985645158</v>
       </c>
       <c r="H12">
-        <v>14.26621153114499</v>
+        <v>8.178959872823697</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.10016737837107</v>
+        <v>5.75215756496045</v>
       </c>
       <c r="K12">
-        <v>12.30877810385911</v>
+        <v>19.91636066356833</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.43729906783768</v>
+        <v>16.86804573205233</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.72025070949988</v>
+        <v>13.49695278309435</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.206032138651119</v>
+        <v>8.954086236875005</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.14272353539608</v>
+        <v>8.319232819981311</v>
       </c>
       <c r="E13">
-        <v>14.29974299394936</v>
+        <v>10.08393344796049</v>
       </c>
       <c r="F13">
-        <v>29.5800422977039</v>
+        <v>20.7104033531111</v>
       </c>
       <c r="G13">
-        <v>28.75717276022998</v>
+        <v>21.71120336000327</v>
       </c>
       <c r="H13">
-        <v>14.26888386795036</v>
+        <v>8.182076093769442</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.10153902258053</v>
+        <v>5.753639879614327</v>
       </c>
       <c r="K13">
-        <v>12.28451762299746</v>
+        <v>19.87034427907367</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.42605275531546</v>
+        <v>16.82594983821186</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.72450602121621</v>
+        <v>13.49544181143511</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.188655294911943</v>
+        <v>8.874034086070765</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.13522163254099</v>
+        <v>8.270201818842295</v>
       </c>
       <c r="E14">
-        <v>14.2996236357127</v>
+        <v>10.04736406364469</v>
       </c>
       <c r="F14">
-        <v>29.59014650497928</v>
+        <v>20.65136187202263</v>
       </c>
       <c r="G14">
-        <v>28.77010115557895</v>
+        <v>21.63236565737989</v>
       </c>
       <c r="H14">
-        <v>14.27765972343275</v>
+        <v>8.192443774072808</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.10604391872937</v>
+        <v>5.758561866260003</v>
       </c>
       <c r="K14">
-        <v>12.20502576669777</v>
+        <v>19.71956986736546</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.38934754483882</v>
+        <v>16.68798133281944</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.73851107718097</v>
+        <v>13.49101107193819</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.178025887735178</v>
+        <v>8.824684930049285</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.13065229759033</v>
+        <v>8.240094655501965</v>
       </c>
       <c r="E15">
-        <v>14.29959985710531</v>
+        <v>10.02503632214152</v>
       </c>
       <c r="F15">
-        <v>29.59648399398647</v>
+        <v>20.61563753644234</v>
       </c>
       <c r="G15">
-        <v>28.77822153345391</v>
+        <v>21.58475596960339</v>
       </c>
       <c r="H15">
-        <v>14.2830818951153</v>
+        <v>8.198950441015597</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.10882763555732</v>
+        <v>5.761643801375978</v>
       </c>
       <c r="K15">
-        <v>12.15604872729816</v>
+        <v>19.62667473656687</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.36684330619087</v>
+        <v>16.602945173214</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.74718755600437</v>
+        <v>13.48867596694607</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.117350599126754</v>
+        <v>8.537038396212129</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.10486719365243</v>
+        <v>8.066460425604259</v>
       </c>
       <c r="E16">
-        <v>14.3002206644983</v>
+        <v>9.898208800612613</v>
       </c>
       <c r="F16">
-        <v>29.63507339855157</v>
+        <v>20.4176213736703</v>
       </c>
       <c r="G16">
-        <v>28.82783544635948</v>
+        <v>21.32229446854943</v>
       </c>
       <c r="H16">
-        <v>14.31487001848241</v>
+        <v>8.238575495998884</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.12515322827168</v>
+        <v>5.780316179220441</v>
       </c>
       <c r="K16">
-        <v>11.87103055528228</v>
+        <v>19.08604477919677</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.23758395411025</v>
+        <v>16.10755387235384</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.79840896270292</v>
+        <v>13.48097895272863</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.080358376295008</v>
+        <v>8.368081944309051</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.0894105413516</v>
+        <v>7.958999114146749</v>
       </c>
       <c r="E17">
-        <v>14.30127803766098</v>
+        <v>9.821428069386572</v>
       </c>
       <c r="F17">
-        <v>29.66077131810787</v>
+        <v>20.30207879646369</v>
       </c>
       <c r="G17">
-        <v>28.86101183586284</v>
+        <v>21.17046061872293</v>
       </c>
       <c r="H17">
-        <v>14.33500972993278</v>
+        <v>8.264911244298494</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.13550171932559</v>
+        <v>5.792655098608095</v>
       </c>
       <c r="K17">
-        <v>11.69233700977404</v>
+        <v>18.74701063673676</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.1580544727142</v>
+        <v>15.79642075431469</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.83116825346947</v>
+        <v>13.48119613303576</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.059173181903336</v>
+        <v>8.281672432571558</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.08065508166781</v>
+        <v>7.896861149996862</v>
       </c>
       <c r="E18">
-        <v>14.30213519667325</v>
+        <v>9.777650514248485</v>
       </c>
       <c r="F18">
-        <v>29.67629501928254</v>
+        <v>20.2377814265697</v>
       </c>
       <c r="G18">
-        <v>28.88109769856661</v>
+        <v>21.08646913747636</v>
       </c>
       <c r="H18">
-        <v>14.34682827585512</v>
+        <v>8.280780877718554</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.14157646143995</v>
+        <v>5.800069942263905</v>
       </c>
       <c r="K18">
-        <v>11.58816056888051</v>
+        <v>18.54930555440756</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.1122382354537</v>
+        <v>15.61480485726966</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.85050098775537</v>
+        <v>13.48308311691141</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.05201667978708</v>
+        <v>8.252271818336867</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.07771396088036</v>
+        <v>7.875767507642959</v>
       </c>
       <c r="E19">
-        <v>14.30246821190708</v>
+        <v>9.762895059907672</v>
       </c>
       <c r="F19">
-        <v>29.68167857064021</v>
+        <v>20.21638023756848</v>
       </c>
       <c r="G19">
-        <v>28.88807049709584</v>
+        <v>21.05860109783189</v>
       </c>
       <c r="H19">
-        <v>14.35087014410807</v>
+        <v>8.286275941943755</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.14365432363639</v>
+        <v>5.802634412299987</v>
       </c>
       <c r="K19">
-        <v>11.55264996499237</v>
+        <v>18.48190298744795</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.0967143209602</v>
+        <v>15.55285555641144</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.85713088489061</v>
+        <v>13.48401961648151</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.084286927542468</v>
+        <v>8.38400567360936</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.0910420192749</v>
+        <v>7.970473014364675</v>
       </c>
       <c r="E20">
-        <v>14.30113971720622</v>
+        <v>9.829561886020095</v>
       </c>
       <c r="F20">
-        <v>29.65795881419975</v>
+        <v>20.31415448659042</v>
       </c>
       <c r="G20">
-        <v>28.85737620153176</v>
+        <v>21.18627717171364</v>
       </c>
       <c r="H20">
-        <v>14.33284153069761</v>
+        <v>8.262032525359675</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.13438742190195</v>
+        <v>5.791308549460881</v>
       </c>
       <c r="K20">
-        <v>11.71150416905149</v>
+        <v>18.78338122966391</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.16652836254887</v>
+        <v>15.82981665203959</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.82763019375571</v>
+        <v>13.48098944938103</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.193756331665737</v>
+        <v>8.89761292077868</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.13741975803469</v>
+        <v>8.284618971251401</v>
       </c>
       <c r="E21">
-        <v>14.29964841577741</v>
+        <v>10.0580904062038</v>
       </c>
       <c r="F21">
-        <v>29.58714772879403</v>
+        <v>20.66861193489299</v>
       </c>
       <c r="G21">
-        <v>28.76626179219696</v>
+        <v>21.65538020836454</v>
       </c>
       <c r="H21">
-        <v>14.27507230819282</v>
+        <v>8.189365855999762</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.10471565002794</v>
+        <v>5.757102139571264</v>
       </c>
       <c r="K21">
-        <v>12.22843412570641</v>
+        <v>19.76396883227732</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.40013324943285</v>
+        <v>16.72861570616104</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.73437703019796</v>
+        <v>13.4922332435211</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.265965301905466</v>
+        <v>9.22463282850263</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.16889003370698</v>
+        <v>8.486652698195646</v>
       </c>
       <c r="E22">
-        <v>14.30088275506473</v>
+        <v>10.21069504251084</v>
       </c>
       <c r="F22">
-        <v>29.54750645198952</v>
+        <v>20.9199220340905</v>
       </c>
       <c r="G22">
-        <v>28.71571727303317</v>
+        <v>21.9923479425366</v>
       </c>
       <c r="H22">
-        <v>14.23940722825986</v>
+        <v>8.148800950838424</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.08641297448832</v>
+        <v>5.737729240711428</v>
       </c>
       <c r="K22">
-        <v>12.55351921336291</v>
+        <v>20.38062618071246</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.55189092262548</v>
+        <v>17.29245565725438</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.6778139428362</v>
+        <v>13.51639557196144</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.227372597688811</v>
+        <v>9.051379015302361</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.15198965261691</v>
+        <v>8.379138933650999</v>
       </c>
       <c r="E23">
-        <v>14.30002227704925</v>
+        <v>10.12895831925204</v>
       </c>
       <c r="F23">
-        <v>29.56805539319046</v>
+        <v>20.78397676597687</v>
       </c>
       <c r="G23">
-        <v>28.74186690533774</v>
+        <v>21.80969598221887</v>
       </c>
       <c r="H23">
-        <v>14.25825105820982</v>
+        <v>8.169792438562508</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.09608185354925</v>
+        <v>5.747788334262768</v>
       </c>
       <c r="K23">
-        <v>12.38119659277155</v>
+        <v>20.05372523695119</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.47099158061542</v>
+        <v>16.9936743025362</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.70760090000057</v>
+        <v>13.50190720043194</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.082510572010507</v>
+        <v>8.3768093114137</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.09030402031868</v>
+        <v>7.965286772064639</v>
       </c>
       <c r="E24">
-        <v>14.30120147538266</v>
+        <v>9.825883449537622</v>
       </c>
       <c r="F24">
-        <v>29.65922801244539</v>
+        <v>20.3086884388132</v>
       </c>
       <c r="G24">
-        <v>28.85901671928078</v>
+        <v>21.17911623776797</v>
       </c>
       <c r="H24">
-        <v>14.33382102611623</v>
+        <v>8.263331729358816</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.13489080558224</v>
+        <v>5.791916326041455</v>
       </c>
       <c r="K24">
-        <v>11.70284318766219</v>
+        <v>18.76694677227256</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.16269760574493</v>
+        <v>15.81472690637744</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.82922819642524</v>
+        <v>13.48107741494171</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.929850910170794</v>
+        <v>7.731614499629787</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.02894089964039</v>
+        <v>7.506578619089558</v>
       </c>
       <c r="E25">
-        <v>14.31199547957542</v>
+        <v>9.513781121056239</v>
       </c>
       <c r="F25">
-        <v>29.78595934879031</v>
+        <v>19.8782124622002</v>
       </c>
       <c r="G25">
-        <v>29.02370778239584</v>
+        <v>20.62593307584101</v>
       </c>
       <c r="H25">
-        <v>14.42430923712234</v>
+        <v>8.391578525417936</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.18143962000373</v>
+        <v>5.851587378817931</v>
       </c>
       <c r="K25">
-        <v>10.91800932796041</v>
+        <v>17.27588271499737</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.82752780207331</v>
+        <v>14.4413280595384</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.97916464603113</v>
+        <v>13.52530233940625</v>
       </c>
     </row>
   </sheetData>
